--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -118,67 +118,70 @@
     <t>12、多租户数据库连接</t>
   </si>
   <si>
-    <t>13、nginx集群及Docker深入使用（优化）</t>
+    <t>13、nginx集群</t>
   </si>
   <si>
     <t>14、在线预览offiece online 验证</t>
   </si>
   <si>
+    <t>15、其他：Docker深入使用（优化）、jemeter压力测试</t>
+  </si>
+  <si>
+    <t>16、</t>
+  </si>
+  <si>
+    <t>任务（胡昌荣）</t>
+  </si>
+  <si>
+    <t>1、导入EXCEL人员信息</t>
+  </si>
+  <si>
+    <t>1月10</t>
+  </si>
+  <si>
+    <t>1月11号</t>
+  </si>
+  <si>
+    <t>2、Spring-security安全框架的验证，用途。</t>
+  </si>
+  <si>
+    <t>3、</t>
+  </si>
+  <si>
+    <t>4、</t>
+  </si>
+  <si>
+    <t>5、</t>
+  </si>
+  <si>
+    <t>6、</t>
+  </si>
+  <si>
+    <t>7、</t>
+  </si>
+  <si>
+    <t>8、</t>
+  </si>
+  <si>
+    <t>9、</t>
+  </si>
+  <si>
+    <t>10、</t>
+  </si>
+  <si>
+    <t>11、</t>
+  </si>
+  <si>
+    <t>12、</t>
+  </si>
+  <si>
+    <t>13、</t>
+  </si>
+  <si>
+    <t>14、</t>
+  </si>
+  <si>
     <t>15、</t>
-  </si>
-  <si>
-    <t>16、</t>
-  </si>
-  <si>
-    <t>任务（胡昌荣）</t>
-  </si>
-  <si>
-    <t>1、导入EXCEL人员信息</t>
-  </si>
-  <si>
-    <t>1月10</t>
-  </si>
-  <si>
-    <t>1月11号</t>
-  </si>
-  <si>
-    <t>2、Spring-security安全框架的验证，用途。</t>
-  </si>
-  <si>
-    <t>3、</t>
-  </si>
-  <si>
-    <t>4、</t>
-  </si>
-  <si>
-    <t>5、</t>
-  </si>
-  <si>
-    <t>6、</t>
-  </si>
-  <si>
-    <t>7、</t>
-  </si>
-  <si>
-    <t>8、</t>
-  </si>
-  <si>
-    <t>9、</t>
-  </si>
-  <si>
-    <t>10、</t>
-  </si>
-  <si>
-    <t>11、</t>
-  </si>
-  <si>
-    <t>12、</t>
-  </si>
-  <si>
-    <t>13、</t>
-  </si>
-  <si>
-    <t>14、</t>
   </si>
 </sst>
 </file>
@@ -186,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -222,14 +225,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -245,9 +240,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,29 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,6 +295,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -306,15 +318,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,7 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -336,37 +362,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,187 +414,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,8 +735,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +767,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,44 +808,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,145 +834,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,15 +1004,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,9 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1049,18 +1022,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1079,12 +1052,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,9 +1070,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,9 +1077,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,8 +1433,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:N52"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1488,14 +1449,14 @@
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1528,33 +1489,33 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" ht="23.25" spans="3:22">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="31" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="37" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1562,25 +1523,25 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" ht="15" spans="3:22">
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="46">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="38">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1588,25 +1549,25 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" ht="15" spans="3:22">
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="47">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="39">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1614,25 +1575,25 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" ht="15" spans="3:22">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="47">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="39">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1640,25 +1601,25 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" ht="15" spans="3:22">
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="47">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="39">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1669,795 +1630,795 @@
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" ht="22.5" spans="3:19">
-      <c r="C14" s="16" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" ht="23.25" spans="3:19">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="31" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="43" t="s">
+      <c r="P14" s="28"/>
+      <c r="Q14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="43" t="s">
+      <c r="R14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S14" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" ht="15" spans="3:19">
-      <c r="C15" s="8"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42">
         <v>43818</v>
       </c>
     </row>
     <row r="16" ht="15" spans="3:19">
-      <c r="C16" s="8"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="51" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="15" spans="3:19">
-      <c r="C17" s="8"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="37" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="51" t="s">
+      <c r="P17" s="32"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="15" spans="3:19">
-      <c r="C18" s="8"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="37" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="51" t="s">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" ht="15" spans="3:19">
-      <c r="C19" s="8"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="37" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="51" t="s">
+      <c r="P19" s="32"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="15" spans="3:19">
-      <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="37" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="51" t="s">
+      <c r="P20" s="32"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" ht="15" spans="3:20">
-      <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="51" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="36"/>
+      <c r="T21" s="30"/>
     </row>
     <row r="22" ht="15" spans="3:20">
-      <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="37" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="52" t="s">
+      <c r="P22" s="32"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="36"/>
+      <c r="T22" s="30"/>
     </row>
     <row r="23" ht="15" spans="3:19">
-      <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="35" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="53"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="45"/>
     </row>
     <row r="24" ht="15" spans="3:19">
-      <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="21" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="53"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="45"/>
     </row>
     <row r="25" ht="15" spans="3:19">
-      <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="53"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="45"/>
     </row>
     <row r="26" ht="15" spans="3:19">
-      <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="53"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="45"/>
     </row>
     <row r="27" ht="15" spans="3:19">
-      <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="21" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="53"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="45"/>
     </row>
     <row r="28" ht="15" spans="3:19">
-      <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="21" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="53"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="45"/>
     </row>
     <row r="29" ht="15" spans="3:19">
-      <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="23" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="53"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="45"/>
     </row>
     <row r="30" ht="15" spans="3:19">
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="23" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="53"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="45"/>
     </row>
     <row r="39" ht="27.75" spans="6:14">
       <c r="F39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" ht="23.25" spans="3:19">
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="31" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="43" t="s">
+      <c r="P40" s="28"/>
+      <c r="Q40" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="43" t="s">
+      <c r="R40" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="44" t="s">
+      <c r="S40" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" ht="15" spans="3:19">
-      <c r="C41" s="8"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="27" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="37" t="s">
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="50" t="s">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" ht="15" spans="3:19">
-      <c r="C42" s="8"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="29" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="55"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="47"/>
     </row>
     <row r="43" ht="15" spans="3:19">
-      <c r="C43" s="8"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="29" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="55"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="47"/>
     </row>
     <row r="44" ht="15" spans="3:19">
-      <c r="C44" s="8"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="29" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="55"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="47"/>
     </row>
     <row r="45" ht="15" spans="3:19">
-      <c r="C45" s="8"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="29" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="55"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="47"/>
     </row>
     <row r="46" ht="15" spans="3:19">
-      <c r="C46" s="8"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="29" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="55"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="47"/>
     </row>
     <row r="47" ht="15" spans="3:19">
-      <c r="C47" s="8"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="29" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="55"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="47"/>
     </row>
     <row r="48" ht="15" spans="3:19">
-      <c r="C48" s="8"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="29" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="56"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="48"/>
     </row>
     <row r="49" ht="15" spans="3:19">
-      <c r="C49" s="8"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="29" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="56"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="48"/>
     </row>
     <row r="50" ht="15" spans="3:19">
-      <c r="C50" s="8"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="29" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="56"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="48"/>
     </row>
     <row r="51" ht="15" spans="3:19">
-      <c r="C51" s="8"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="29" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="53"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="45"/>
     </row>
     <row r="52" ht="15" spans="3:19">
-      <c r="C52" s="8"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="29" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="53"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="45"/>
     </row>
     <row r="53" ht="15" spans="3:19">
-      <c r="C53" s="8"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="29" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="53"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="45"/>
     </row>
     <row r="54" ht="15" spans="3:19">
-      <c r="C54" s="8"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="29" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="53"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="45"/>
     </row>
     <row r="55" ht="15" spans="3:19">
-      <c r="C55" s="8"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="53"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="45"/>
     </row>
     <row r="56" ht="15" spans="3:19">
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="23" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="53"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="81">

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23760" windowHeight="8925"/>
+    <workbookView windowWidth="23520" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -55,6 +55,9 @@
     <t>开始时间</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>1、jwttoken，拦截登录</t>
   </si>
   <si>
@@ -109,7 +112,16 @@
     <t>9、数据说明书</t>
   </si>
   <si>
+    <t>1月16号</t>
+  </si>
+  <si>
     <t>10、IDOC服务的划分，架构优化</t>
+  </si>
+  <si>
+    <t>1月11日（半天）</t>
+  </si>
+  <si>
+    <t>1月15日（一天，划分）</t>
   </si>
   <si>
     <t>11、IDOC表的理解，熟悉表逻辑</t>
@@ -964,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1079,9 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,6 +1101,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,13 +1451,14 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="19" max="19" width="24.875" customWidth="1"/>
+    <col min="20" max="20" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="27" spans="3:22">
@@ -1509,13 +1528,13 @@
         <v>3</v>
       </c>
       <c r="P5" s="28"/>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="38" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1539,9 +1558,9 @@
       <c r="N6" s="10"/>
       <c r="O6" s="27"/>
       <c r="P6" s="28"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="38">
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="39">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1565,9 +1584,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="27"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="39">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="40">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1591,9 +1610,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="39">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="40">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1617,9 +1636,9 @@
       <c r="N9" s="13"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="39">
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="40">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1639,7 +1658,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" ht="23.25" spans="3:19">
+    <row r="14" ht="23.25" spans="3:20">
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1660,21 +1679,24 @@
         <v>12</v>
       </c>
       <c r="P14" s="28"/>
-      <c r="Q14" s="36" t="s">
+      <c r="Q14" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R14" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="38" t="s">
         <v>6</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" ht="15" spans="3:19">
       <c r="C15" s="7"/>
       <c r="D15" s="16"/>
       <c r="E15" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -1687,9 +1709,9 @@
       <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="44">
         <v>43818</v>
       </c>
     </row>
@@ -1697,7 +1719,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -1710,17 +1732,17 @@
       <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="43" t="s">
-        <v>15</v>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="45" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="15" spans="3:19">
       <c r="C17" s="7"/>
       <c r="D17" s="16"/>
       <c r="E17" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1732,20 +1754,20 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P17" s="32"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="43" t="s">
-        <v>18</v>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="45" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="15" spans="3:19">
       <c r="C18" s="7"/>
       <c r="D18" s="16"/>
       <c r="E18" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1757,20 +1779,20 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P18" s="32"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="43" t="s">
-        <v>21</v>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="45" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="15" spans="3:19">
       <c r="C19" s="7"/>
       <c r="D19" s="16"/>
       <c r="E19" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -1782,20 +1804,20 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" s="32"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="43" t="s">
-        <v>21</v>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="45" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="15" spans="3:19">
       <c r="C20" s="7"/>
       <c r="D20" s="16"/>
       <c r="E20" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1807,20 +1829,20 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20" s="32"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="3:20">
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="3:19">
       <c r="C21" s="7"/>
       <c r="D21" s="16"/>
       <c r="E21" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -1831,20 +1853,21 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="33"/>
+      <c r="O21" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="P21" s="32"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21" s="30"/>
-    </row>
-    <row r="22" ht="15" spans="3:20">
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="3:19">
       <c r="C22" s="7"/>
       <c r="D22" s="16"/>
       <c r="E22" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1856,21 +1879,20 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P22" s="32"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="T22" s="30"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="46" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" ht="15" spans="3:19">
       <c r="C23" s="7"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1882,18 +1904,20 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23" s="30"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="45"/>
-    </row>
-    <row r="24" ht="15" spans="3:19">
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="3:20">
       <c r="C24" s="7"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -1904,17 +1928,24 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="P24" s="30"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="45"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="47">
+        <v>43480</v>
+      </c>
+      <c r="T24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" ht="15" spans="3:19">
       <c r="C25" s="7"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -1927,15 +1958,15 @@
       <c r="N25" s="18"/>
       <c r="O25" s="29"/>
       <c r="P25" s="30"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="45"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="47"/>
     </row>
     <row r="26" ht="15" spans="3:19">
       <c r="C26" s="7"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1946,17 +1977,19 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="34">
+        <v>43481</v>
+      </c>
       <c r="P26" s="30"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="45"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="47"/>
     </row>
     <row r="27" ht="15" spans="3:19">
       <c r="C27" s="7"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1969,15 +2002,15 @@
       <c r="N27" s="18"/>
       <c r="O27" s="29"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="45"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="47"/>
     </row>
     <row r="28" ht="15" spans="3:19">
       <c r="C28" s="7"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1990,15 +2023,15 @@
       <c r="N28" s="18"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="45"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="47"/>
     </row>
     <row r="29" ht="15" spans="3:19">
       <c r="C29" s="7"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -2011,15 +2044,15 @@
       <c r="N29" s="18"/>
       <c r="O29" s="29"/>
       <c r="P29" s="30"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="45"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="47"/>
     </row>
     <row r="30" ht="15" spans="3:19">
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
       <c r="E30" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
@@ -2032,13 +2065,13 @@
       <c r="N30" s="22"/>
       <c r="O30" s="29"/>
       <c r="P30" s="30"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="45"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="47"/>
     </row>
     <row r="39" ht="27.75" spans="6:14">
       <c r="F39" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2070,13 +2103,13 @@
         <v>12</v>
       </c>
       <c r="P40" s="28"/>
-      <c r="Q40" s="36" t="s">
+      <c r="Q40" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="36" t="s">
+      <c r="R40" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="37" t="s">
+      <c r="S40" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2084,7 +2117,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="16"/>
       <c r="E41" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2096,20 +2129,20 @@
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
       <c r="O41" s="31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P41" s="32"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="42" t="s">
-        <v>41</v>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="44" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="15" spans="3:19">
       <c r="C42" s="7"/>
       <c r="D42" s="16"/>
       <c r="E42" s="25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -2120,17 +2153,17 @@
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
-      <c r="O42" s="34"/>
+      <c r="O42" s="35"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="47"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="49"/>
     </row>
     <row r="43" ht="15" spans="3:19">
       <c r="C43" s="7"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
@@ -2141,17 +2174,17 @@
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
-      <c r="O43" s="34"/>
+      <c r="O43" s="35"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="47"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="49"/>
     </row>
     <row r="44" ht="15" spans="3:19">
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
       <c r="E44" s="25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -2162,17 +2195,17 @@
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
       <c r="N44" s="26"/>
-      <c r="O44" s="34"/>
+      <c r="O44" s="35"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="47"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="49"/>
     </row>
     <row r="45" ht="15" spans="3:19">
       <c r="C45" s="7"/>
       <c r="D45" s="16"/>
       <c r="E45" s="25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -2183,17 +2216,17 @@
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
-      <c r="O45" s="34"/>
+      <c r="O45" s="35"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="47"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="49"/>
     </row>
     <row r="46" ht="15" spans="3:19">
       <c r="C46" s="7"/>
       <c r="D46" s="16"/>
       <c r="E46" s="25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -2204,17 +2237,17 @@
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
       <c r="N46" s="26"/>
-      <c r="O46" s="34"/>
+      <c r="O46" s="35"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="47"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="49"/>
     </row>
     <row r="47" ht="15" spans="3:19">
       <c r="C47" s="7"/>
       <c r="D47" s="16"/>
       <c r="E47" s="25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -2225,17 +2258,17 @@
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
-      <c r="O47" s="35"/>
+      <c r="O47" s="36"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="47"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="49"/>
     </row>
     <row r="48" ht="15" spans="3:19">
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
       <c r="E48" s="25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -2246,17 +2279,17 @@
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="34"/>
+      <c r="O48" s="35"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="50"/>
     </row>
     <row r="49" ht="15" spans="3:19">
       <c r="C49" s="7"/>
       <c r="D49" s="16"/>
       <c r="E49" s="25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -2267,17 +2300,17 @@
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
-      <c r="O49" s="34"/>
+      <c r="O49" s="35"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="50"/>
     </row>
     <row r="50" ht="15" spans="3:19">
       <c r="C50" s="7"/>
       <c r="D50" s="16"/>
       <c r="E50" s="25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -2288,17 +2321,17 @@
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
-      <c r="O50" s="34"/>
+      <c r="O50" s="35"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="50"/>
     </row>
     <row r="51" ht="15" spans="3:19">
       <c r="C51" s="7"/>
       <c r="D51" s="16"/>
       <c r="E51" s="25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -2311,15 +2344,15 @@
       <c r="N51" s="26"/>
       <c r="O51" s="29"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="45"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="47"/>
     </row>
     <row r="52" ht="15" spans="3:19">
       <c r="C52" s="7"/>
       <c r="D52" s="16"/>
       <c r="E52" s="25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -2332,15 +2365,15 @@
       <c r="N52" s="26"/>
       <c r="O52" s="29"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="45"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="47"/>
     </row>
     <row r="53" ht="15" spans="3:19">
       <c r="C53" s="7"/>
       <c r="D53" s="16"/>
       <c r="E53" s="25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -2353,15 +2386,15 @@
       <c r="N53" s="26"/>
       <c r="O53" s="29"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="45"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="47"/>
     </row>
     <row r="54" ht="15" spans="3:19">
       <c r="C54" s="7"/>
       <c r="D54" s="16"/>
       <c r="E54" s="25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -2374,15 +2407,15 @@
       <c r="N54" s="26"/>
       <c r="O54" s="29"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="45"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="47"/>
     </row>
     <row r="55" ht="15" spans="3:19">
       <c r="C55" s="7"/>
       <c r="D55" s="16"/>
       <c r="E55" s="21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -2395,15 +2428,15 @@
       <c r="N55" s="22"/>
       <c r="O55" s="29"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="45"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="47"/>
     </row>
     <row r="56" ht="15" spans="3:19">
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -2416,9 +2449,9 @@
       <c r="N56" s="22"/>
       <c r="O56" s="29"/>
       <c r="P56" s="30"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="45"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="81">

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23520" windowHeight="8355"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -115,7 +115,7 @@
     <t>1月16号</t>
   </si>
   <si>
-    <t>10、IDOC服务的划分，架构优化</t>
+    <t>10、IDOC服务的划分</t>
   </si>
   <si>
     <t>1月11日（半天）</t>
@@ -127,9 +127,15 @@
     <t>11、IDOC表的理解，熟悉表逻辑</t>
   </si>
   <si>
+    <t>1月17号</t>
+  </si>
+  <si>
     <t>12、多租户数据库连接</t>
   </si>
   <si>
+    <t>1月14</t>
+  </si>
+  <si>
     <t>13、nginx集群</t>
   </si>
   <si>
@@ -139,61 +145,73 @@
     <t>15、其他：Docker深入使用（优化）、jemeter压力测试</t>
   </si>
   <si>
+    <t>16、架构优化</t>
+  </si>
+  <si>
+    <t>17、mycat集群</t>
+  </si>
+  <si>
+    <t>18、</t>
+  </si>
+  <si>
+    <t>19、</t>
+  </si>
+  <si>
+    <t>任务（胡昌荣）</t>
+  </si>
+  <si>
+    <t>1、导入EXCEL人员信息</t>
+  </si>
+  <si>
+    <t>1月10</t>
+  </si>
+  <si>
+    <t>1月11号</t>
+  </si>
+  <si>
+    <t>2、Spring-security安全框架的验证，用途。</t>
+  </si>
+  <si>
+    <t>3、乐观锁、悲观锁</t>
+  </si>
+  <si>
+    <t>4、</t>
+  </si>
+  <si>
+    <t>5、</t>
+  </si>
+  <si>
+    <t>6、</t>
+  </si>
+  <si>
+    <t>7、</t>
+  </si>
+  <si>
+    <t>8、</t>
+  </si>
+  <si>
+    <t>9、</t>
+  </si>
+  <si>
+    <t>10、</t>
+  </si>
+  <si>
+    <t>11、</t>
+  </si>
+  <si>
+    <t>12、</t>
+  </si>
+  <si>
+    <t>13、</t>
+  </si>
+  <si>
+    <t>14、</t>
+  </si>
+  <si>
+    <t>15、</t>
+  </si>
+  <si>
     <t>16、</t>
-  </si>
-  <si>
-    <t>任务（胡昌荣）</t>
-  </si>
-  <si>
-    <t>1、导入EXCEL人员信息</t>
-  </si>
-  <si>
-    <t>1月10</t>
-  </si>
-  <si>
-    <t>1月11号</t>
-  </si>
-  <si>
-    <t>2、Spring-security安全框架的验证，用途。</t>
-  </si>
-  <si>
-    <t>3、</t>
-  </si>
-  <si>
-    <t>4、</t>
-  </si>
-  <si>
-    <t>5、</t>
-  </si>
-  <si>
-    <t>6、</t>
-  </si>
-  <si>
-    <t>7、</t>
-  </si>
-  <si>
-    <t>8、</t>
-  </si>
-  <si>
-    <t>9、</t>
-  </si>
-  <si>
-    <t>10、</t>
-  </si>
-  <si>
-    <t>11、</t>
-  </si>
-  <si>
-    <t>12、</t>
-  </si>
-  <si>
-    <t>13、</t>
-  </si>
-  <si>
-    <t>14、</t>
-  </si>
-  <si>
-    <t>15、</t>
   </si>
 </sst>
 </file>
@@ -201,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -238,7 +256,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,24 +285,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,22 +338,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,6 +353,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -330,44 +376,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,175 +438,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,45 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -783,22 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,8 +801,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,137 +870,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,7 +1103,13 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,10 +1121,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,6 +1147,15 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1528,13 +1567,13 @@
         <v>3</v>
       </c>
       <c r="P5" s="28"/>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1558,9 +1597,9 @@
       <c r="N6" s="10"/>
       <c r="O6" s="27"/>
       <c r="P6" s="28"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="39">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="41">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1584,9 +1623,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="27"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="40">
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="42">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1610,9 +1649,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="40">
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="42">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1636,9 +1675,9 @@
       <c r="N9" s="13"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="40">
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="42">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1679,16 +1718,16 @@
         <v>12</v>
       </c>
       <c r="P14" s="28"/>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="42" t="s">
+      <c r="T14" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1709,9 +1748,9 @@
       <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="44">
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46">
         <v>43818</v>
       </c>
     </row>
@@ -1732,9 +1771,9 @@
       <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="45" t="s">
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1757,9 +1796,9 @@
         <v>18</v>
       </c>
       <c r="P17" s="32"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="45" t="s">
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1782,9 +1821,9 @@
         <v>21</v>
       </c>
       <c r="P18" s="32"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="45" t="s">
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="47" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1807,9 +1846,9 @@
         <v>22</v>
       </c>
       <c r="P19" s="32"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="45" t="s">
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="47" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1832,9 +1871,9 @@
         <v>24</v>
       </c>
       <c r="P20" s="32"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="45" t="s">
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="47" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1857,9 +1896,9 @@
         <v>26</v>
       </c>
       <c r="P21" s="32"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="45" t="s">
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1882,62 +1921,62 @@
         <v>28</v>
       </c>
       <c r="P22" s="32"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="46" t="s">
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" ht="15" spans="3:19">
       <c r="C23" s="7"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="29" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="29" t="s">
+      <c r="P23" s="35"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" ht="15" spans="3:20">
       <c r="C24" s="7"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="34" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="47">
+      <c r="P24" s="35"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="50">
         <v>43480</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1956,40 +1995,44 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="P25" s="30"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="47"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="52"/>
     </row>
     <row r="26" ht="15" spans="3:19">
       <c r="C26" s="7"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="34">
-        <v>43481</v>
-      </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="47"/>
+      <c r="E26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="36">
+        <v>43479</v>
+      </c>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" ht="15" spans="3:19">
       <c r="C27" s="7"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -2002,15 +2045,15 @@
       <c r="N27" s="18"/>
       <c r="O27" s="29"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="47"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" ht="15" spans="3:19">
       <c r="C28" s="7"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -2023,15 +2066,15 @@
       <c r="N28" s="18"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="47"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="52"/>
     </row>
     <row r="29" ht="15" spans="3:19">
       <c r="C29" s="7"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -2044,34 +2087,91 @@
       <c r="N29" s="18"/>
       <c r="O29" s="29"/>
       <c r="P29" s="30"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="47"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="52"/>
     </row>
     <row r="30" ht="15" spans="3:19">
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
+      <c r="E30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
       <c r="O30" s="29"/>
       <c r="P30" s="30"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="47"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="52"/>
+    </row>
+    <row r="31" ht="15" spans="5:19">
+      <c r="E31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="52"/>
+    </row>
+    <row r="32" ht="15" spans="5:19">
+      <c r="E32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="52"/>
+    </row>
+    <row r="33" ht="15" spans="5:19">
+      <c r="E33" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="52"/>
     </row>
     <row r="39" ht="27.75" spans="6:14">
       <c r="F39" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2103,13 +2203,13 @@
         <v>12</v>
       </c>
       <c r="P40" s="28"/>
-      <c r="Q40" s="37" t="s">
+      <c r="Q40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="37" t="s">
+      <c r="R40" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="38" t="s">
+      <c r="S40" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2117,7 +2217,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="16"/>
       <c r="E41" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2129,41 +2229,45 @@
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
       <c r="O41" s="31" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P41" s="32"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="44" t="s">
-        <v>45</v>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" ht="15" spans="3:19">
       <c r="C42" s="7"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="35"/>
+      <c r="E42" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="P42" s="6"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="49"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" ht="15" spans="3:19">
       <c r="C43" s="7"/>
       <c r="D43" s="16"/>
       <c r="E43" s="25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
@@ -2174,17 +2278,17 @@
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
-      <c r="O43" s="35"/>
+      <c r="O43" s="37"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="49"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="54"/>
     </row>
     <row r="44" ht="15" spans="3:19">
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
       <c r="E44" s="25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -2195,17 +2299,17 @@
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
       <c r="N44" s="26"/>
-      <c r="O44" s="35"/>
+      <c r="O44" s="37"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="49"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="54"/>
     </row>
     <row r="45" ht="15" spans="3:19">
       <c r="C45" s="7"/>
       <c r="D45" s="16"/>
       <c r="E45" s="25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -2216,17 +2320,17 @@
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
-      <c r="O45" s="35"/>
+      <c r="O45" s="37"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="49"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="54"/>
     </row>
     <row r="46" ht="15" spans="3:19">
       <c r="C46" s="7"/>
       <c r="D46" s="16"/>
       <c r="E46" s="25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -2237,17 +2341,17 @@
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
       <c r="N46" s="26"/>
-      <c r="O46" s="35"/>
+      <c r="O46" s="37"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="49"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="54"/>
     </row>
     <row r="47" ht="15" spans="3:19">
       <c r="C47" s="7"/>
       <c r="D47" s="16"/>
       <c r="E47" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -2258,17 +2362,17 @@
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
-      <c r="O47" s="36"/>
+      <c r="O47" s="38"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="49"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="54"/>
     </row>
     <row r="48" ht="15" spans="3:19">
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
       <c r="E48" s="25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -2279,17 +2383,17 @@
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="35"/>
+      <c r="O48" s="37"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="50"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="55"/>
     </row>
     <row r="49" ht="15" spans="3:19">
       <c r="C49" s="7"/>
       <c r="D49" s="16"/>
       <c r="E49" s="25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -2300,17 +2404,17 @@
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
-      <c r="O49" s="35"/>
+      <c r="O49" s="37"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="50"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="55"/>
     </row>
     <row r="50" ht="15" spans="3:19">
       <c r="C50" s="7"/>
       <c r="D50" s="16"/>
       <c r="E50" s="25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -2321,17 +2425,17 @@
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
-      <c r="O50" s="35"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="50"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="55"/>
     </row>
     <row r="51" ht="15" spans="3:19">
       <c r="C51" s="7"/>
       <c r="D51" s="16"/>
       <c r="E51" s="25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -2344,15 +2448,15 @@
       <c r="N51" s="26"/>
       <c r="O51" s="29"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="47"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="52"/>
     </row>
     <row r="52" ht="15" spans="3:19">
       <c r="C52" s="7"/>
       <c r="D52" s="16"/>
       <c r="E52" s="25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -2365,15 +2469,15 @@
       <c r="N52" s="26"/>
       <c r="O52" s="29"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="47"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="52"/>
     </row>
     <row r="53" ht="15" spans="3:19">
       <c r="C53" s="7"/>
       <c r="D53" s="16"/>
       <c r="E53" s="25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -2386,15 +2490,15 @@
       <c r="N53" s="26"/>
       <c r="O53" s="29"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="47"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="52"/>
     </row>
     <row r="54" ht="15" spans="3:19">
       <c r="C54" s="7"/>
       <c r="D54" s="16"/>
       <c r="E54" s="25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -2407,15 +2511,15 @@
       <c r="N54" s="26"/>
       <c r="O54" s="29"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="47"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="52"/>
     </row>
     <row r="55" ht="15" spans="3:19">
       <c r="C55" s="7"/>
       <c r="D55" s="16"/>
       <c r="E55" s="21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -2428,15 +2532,15 @@
       <c r="N55" s="22"/>
       <c r="O55" s="29"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="47"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="52"/>
     </row>
     <row r="56" ht="15" spans="3:19">
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="21" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -2449,12 +2553,12 @@
       <c r="N56" s="22"/>
       <c r="O56" s="29"/>
       <c r="P56" s="30"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="47"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="87">
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="E5:N5"/>
     <mergeCell ref="O5:P5"/>
@@ -2498,6 +2602,12 @@
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="E30:N30"/>
     <mergeCell ref="O30:P30"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="E32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="E33:N33"/>
+    <mergeCell ref="O33:P33"/>
     <mergeCell ref="F39:N39"/>
     <mergeCell ref="E40:N40"/>
     <mergeCell ref="O40:P40"/>

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -175,7 +175,13 @@
     <t>3、乐观锁、悲观锁</t>
   </si>
   <si>
-    <t>4、</t>
+    <t>1月25</t>
+  </si>
+  <si>
+    <t>4、docker使用</t>
+  </si>
+  <si>
+    <t>2月8号</t>
   </si>
   <si>
     <t>5、</t>
@@ -220,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -255,6 +261,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -263,59 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,16 +299,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,15 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -375,17 +337,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,8 +372,40 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,181 +444,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,6 +753,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -782,74 +850,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,137 +870,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,28 +1103,25 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,13 +1145,7 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,8 +1481,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1567,13 +1558,13 @@
         <v>3</v>
       </c>
       <c r="P5" s="28"/>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="S5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1597,9 +1588,9 @@
       <c r="N6" s="10"/>
       <c r="O6" s="27"/>
       <c r="P6" s="28"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="41">
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="40">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1623,9 +1614,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="27"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="42">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="41">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1649,9 +1640,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="42">
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="41">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1675,9 +1666,9 @@
       <c r="N9" s="13"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="42">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="41">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1718,16 +1709,16 @@
         <v>12</v>
       </c>
       <c r="P14" s="28"/>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="40" t="s">
+      <c r="S14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="44" t="s">
+      <c r="T14" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1748,9 +1739,9 @@
       <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46">
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="45">
         <v>43818</v>
       </c>
     </row>
@@ -1771,9 +1762,9 @@
       <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="47" t="s">
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1796,9 +1787,9 @@
         <v>18</v>
       </c>
       <c r="P17" s="32"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="47" t="s">
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="46" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1821,9 +1812,9 @@
         <v>21</v>
       </c>
       <c r="P18" s="32"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="47" t="s">
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1846,9 +1837,9 @@
         <v>22</v>
       </c>
       <c r="P19" s="32"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="47" t="s">
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="46" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1871,9 +1862,9 @@
         <v>24</v>
       </c>
       <c r="P20" s="32"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="47" t="s">
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1896,9 +1887,9 @@
         <v>26</v>
       </c>
       <c r="P21" s="32"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="47" t="s">
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1921,9 +1912,9 @@
         <v>28</v>
       </c>
       <c r="P22" s="32"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="48" t="s">
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="47" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1942,13 +1933,13 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="34" t="s">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1967,16 +1958,16 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="50">
+      <c r="P24" s="32"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="47">
         <v>43480</v>
       </c>
-      <c r="T24" s="51" t="s">
+      <c r="T24" s="48" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1999,9 +1990,9 @@
         <v>37</v>
       </c>
       <c r="P25" s="30"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="52"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="49"/>
     </row>
     <row r="26" ht="15" spans="3:19">
       <c r="C26" s="7"/>
@@ -2018,13 +2009,13 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="36">
+      <c r="O26" s="34">
         <v>43479</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="50" t="s">
+      <c r="P26" s="32"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="47" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2045,9 +2036,9 @@
       <c r="N27" s="18"/>
       <c r="O27" s="29"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="52"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="49"/>
     </row>
     <row r="28" ht="15" spans="3:19">
       <c r="C28" s="7"/>
@@ -2066,9 +2057,9 @@
       <c r="N28" s="18"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="52"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="49"/>
     </row>
     <row r="29" ht="15" spans="3:19">
       <c r="C29" s="7"/>
@@ -2087,9 +2078,9 @@
       <c r="N29" s="18"/>
       <c r="O29" s="29"/>
       <c r="P29" s="30"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="52"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="49"/>
     </row>
     <row r="30" ht="15" spans="3:19">
       <c r="C30" s="19"/>
@@ -2108,9 +2099,9 @@
       <c r="N30" s="18"/>
       <c r="O30" s="29"/>
       <c r="P30" s="30"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="52"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="49"/>
     </row>
     <row r="31" ht="15" spans="5:19">
       <c r="E31" s="17" t="s">
@@ -2127,9 +2118,9 @@
       <c r="N31" s="18"/>
       <c r="O31" s="29"/>
       <c r="P31" s="30"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="52"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="49"/>
     </row>
     <row r="32" ht="15" spans="5:19">
       <c r="E32" s="21" t="s">
@@ -2146,9 +2137,9 @@
       <c r="N32" s="22"/>
       <c r="O32" s="29"/>
       <c r="P32" s="30"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="52"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="49"/>
     </row>
     <row r="33" ht="15" spans="5:19">
       <c r="E33" s="21" t="s">
@@ -2165,9 +2156,9 @@
       <c r="N33" s="22"/>
       <c r="O33" s="29"/>
       <c r="P33" s="30"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="52"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="49"/>
     </row>
     <row r="39" ht="27.75" spans="6:14">
       <c r="F39" s="2" t="s">
@@ -2203,13 +2194,13 @@
         <v>12</v>
       </c>
       <c r="P40" s="28"/>
-      <c r="Q40" s="39" t="s">
+      <c r="Q40" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="39" t="s">
+      <c r="R40" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="40" t="s">
+      <c r="S40" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2232,9 +2223,9 @@
         <v>49</v>
       </c>
       <c r="P41" s="32"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="46" t="s">
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="45" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2253,63 +2244,71 @@
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="37" t="s">
+      <c r="O42" s="35" t="s">
         <v>39</v>
       </c>
       <c r="P42" s="6"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="54" t="s">
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" ht="15" spans="3:19">
       <c r="C43" s="7"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="37"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="36">
+        <v>43486</v>
+      </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="54"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="51" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44" ht="15" spans="3:19">
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="37"/>
+      <c r="E44" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="36">
+        <v>43493</v>
+      </c>
       <c r="P44" s="6"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="54"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="51" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" ht="15" spans="3:19">
       <c r="C45" s="7"/>
       <c r="D45" s="16"/>
       <c r="E45" s="25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -2320,17 +2319,17 @@
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
-      <c r="O45" s="37"/>
+      <c r="O45" s="35"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="54"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="51"/>
     </row>
     <row r="46" ht="15" spans="3:19">
       <c r="C46" s="7"/>
       <c r="D46" s="16"/>
       <c r="E46" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -2341,17 +2340,17 @@
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
       <c r="N46" s="26"/>
-      <c r="O46" s="37"/>
+      <c r="O46" s="35"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="54"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="51"/>
     </row>
     <row r="47" ht="15" spans="3:19">
       <c r="C47" s="7"/>
       <c r="D47" s="16"/>
       <c r="E47" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -2362,17 +2361,17 @@
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
-      <c r="O47" s="38"/>
+      <c r="O47" s="37"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="54"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="51"/>
     </row>
     <row r="48" ht="15" spans="3:19">
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
       <c r="E48" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -2383,17 +2382,17 @@
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="37"/>
+      <c r="O48" s="35"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="55"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="52"/>
     </row>
     <row r="49" ht="15" spans="3:19">
       <c r="C49" s="7"/>
       <c r="D49" s="16"/>
       <c r="E49" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -2404,17 +2403,17 @@
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
-      <c r="O49" s="37"/>
+      <c r="O49" s="35"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="55"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="52"/>
     </row>
     <row r="50" ht="15" spans="3:19">
       <c r="C50" s="7"/>
       <c r="D50" s="16"/>
       <c r="E50" s="25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -2425,17 +2424,17 @@
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
-      <c r="O50" s="37"/>
+      <c r="O50" s="35"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="55"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="52"/>
     </row>
     <row r="51" ht="15" spans="3:19">
       <c r="C51" s="7"/>
       <c r="D51" s="16"/>
       <c r="E51" s="25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -2448,15 +2447,15 @@
       <c r="N51" s="26"/>
       <c r="O51" s="29"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="52"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="49"/>
     </row>
     <row r="52" ht="15" spans="3:19">
       <c r="C52" s="7"/>
       <c r="D52" s="16"/>
       <c r="E52" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -2469,15 +2468,15 @@
       <c r="N52" s="26"/>
       <c r="O52" s="29"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="52"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="49"/>
     </row>
     <row r="53" ht="15" spans="3:19">
       <c r="C53" s="7"/>
       <c r="D53" s="16"/>
       <c r="E53" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -2490,15 +2489,15 @@
       <c r="N53" s="26"/>
       <c r="O53" s="29"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="52"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="49"/>
     </row>
     <row r="54" ht="15" spans="3:19">
       <c r="C54" s="7"/>
       <c r="D54" s="16"/>
       <c r="E54" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -2511,15 +2510,15 @@
       <c r="N54" s="26"/>
       <c r="O54" s="29"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="52"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="49"/>
     </row>
     <row r="55" ht="15" spans="3:19">
       <c r="C55" s="7"/>
       <c r="D55" s="16"/>
       <c r="E55" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -2532,15 +2531,15 @@
       <c r="N55" s="22"/>
       <c r="O55" s="29"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="52"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="49"/>
     </row>
     <row r="56" ht="15" spans="3:19">
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -2553,9 +2552,9 @@
       <c r="N56" s="22"/>
       <c r="O56" s="29"/>
       <c r="P56" s="30"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="52"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="87">

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="15360" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>19、</t>
+  </si>
+  <si>
+    <t>20、</t>
   </si>
   <si>
     <t>任务（胡昌荣）</t>
@@ -225,9 +228,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -261,16 +264,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -278,7 +280,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,45 +302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,35 +310,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +331,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -397,9 +393,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +453,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,157 +489,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,26 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -784,6 +767,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,30 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,6 +833,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,8 +1484,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:N49"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2160,9 +2163,23 @@
       <c r="R33" s="42"/>
       <c r="S33" s="49"/>
     </row>
+    <row r="34" ht="15" spans="5:14">
+      <c r="E34" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+    </row>
     <row r="39" ht="27.75" spans="6:14">
       <c r="F39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2208,7 +2225,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="16"/>
       <c r="E41" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2220,20 +2237,20 @@
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
       <c r="O41" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P41" s="32"/>
       <c r="Q41" s="44"/>
       <c r="R41" s="44"/>
       <c r="S41" s="45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="15" spans="3:19">
       <c r="C42" s="7"/>
       <c r="D42" s="16"/>
       <c r="E42" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -2258,7 +2275,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="16"/>
       <c r="E43" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -2276,14 +2293,14 @@
       <c r="Q43" s="50"/>
       <c r="R43" s="50"/>
       <c r="S43" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" ht="15" spans="3:19">
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
       <c r="E44" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
@@ -2301,14 +2318,14 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" ht="15" spans="3:19">
       <c r="C45" s="7"/>
       <c r="D45" s="16"/>
       <c r="E45" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -2329,7 +2346,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="16"/>
       <c r="E46" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -2350,7 +2367,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="16"/>
       <c r="E47" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -2371,7 +2388,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
       <c r="E48" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -2392,7 +2409,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="16"/>
       <c r="E49" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -2413,7 +2430,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="16"/>
       <c r="E50" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -2434,7 +2451,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="16"/>
       <c r="E51" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -2455,7 +2472,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="16"/>
       <c r="E52" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -2476,7 +2493,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="16"/>
       <c r="E53" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -2497,7 +2514,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="16"/>
       <c r="E54" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -2518,7 +2535,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="16"/>
       <c r="E55" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -2539,7 +2556,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -2557,7 +2574,7 @@
       <c r="S56" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="88">
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="E5:N5"/>
     <mergeCell ref="O5:P5"/>
@@ -2607,6 +2624,7 @@
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="E33:N33"/>
     <mergeCell ref="O33:P33"/>
+    <mergeCell ref="E34:N34"/>
     <mergeCell ref="F39:N39"/>
     <mergeCell ref="E40:N40"/>
     <mergeCell ref="O40:P40"/>

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="7785"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -136,22 +136,25 @@
     <t>1月14</t>
   </si>
   <si>
-    <t>13、nginx集群</t>
-  </si>
-  <si>
-    <t>14、在线预览offiece online 验证</t>
-  </si>
-  <si>
-    <t>15、其他：Docker深入使用（优化）、jemeter压力测试</t>
-  </si>
-  <si>
-    <t>16、架构优化</t>
-  </si>
-  <si>
-    <t>17、mycat集群</t>
-  </si>
-  <si>
-    <t>18、</t>
+    <t>13、mycat集群</t>
+  </si>
+  <si>
+    <t>14、架构优化</t>
+  </si>
+  <si>
+    <t>15、nginx集群</t>
+  </si>
+  <si>
+    <t>16、在线预览offiece online 验证</t>
+  </si>
+  <si>
+    <t>17、其他：Docker深入使用（优化）、jemeter压力测试</t>
+  </si>
+  <si>
+    <t>18、开发任务书--按模块、逻辑书写</t>
+  </si>
+  <si>
+    <t>2月15</t>
   </si>
   <si>
     <t>19、</t>
@@ -187,10 +190,10 @@
     <t>2月8号</t>
   </si>
   <si>
-    <t>5、</t>
-  </si>
-  <si>
-    <t>6、</t>
+    <t>5、rancher搭建使用</t>
+  </si>
+  <si>
+    <t>6、Docker深入使用（优化）</t>
   </si>
   <si>
     <t>7、</t>
@@ -228,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -264,70 +267,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,18 +292,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,24 +336,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,8 +403,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +444,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0CE8E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,55 +462,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,79 +546,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,36 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -815,6 +794,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,137 +882,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,16 +1088,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,13 +1133,13 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1484,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:N39"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1557,17 +1572,17 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="38" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1589,11 +1604,11 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="40">
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="42">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1615,11 +1630,11 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="41">
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="43">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1641,11 +1656,11 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="41">
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="43">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1667,11 +1682,11 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="41">
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="43">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1708,20 +1723,20 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="38" t="s">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1740,11 +1755,11 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45">
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47">
         <v>43818</v>
       </c>
     </row>
@@ -1763,11 +1778,11 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="46" t="s">
+      <c r="O16" s="33"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="48" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1786,13 +1801,13 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="46" t="s">
+      <c r="P17" s="34"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="48" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1811,13 +1826,13 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="46" t="s">
+      <c r="P18" s="34"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1836,13 +1851,13 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="46" t="s">
+      <c r="P19" s="34"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="48" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1861,13 +1876,13 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="46" t="s">
+      <c r="P20" s="34"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="48" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1886,13 +1901,13 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="33" t="s">
+      <c r="O21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="46" t="s">
+      <c r="P21" s="34"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="48" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1911,13 +1926,13 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="47" t="s">
+      <c r="P22" s="34"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="49" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1936,13 +1951,13 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="31" t="s">
+      <c r="P23" s="34"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="33" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1961,16 +1976,16 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="47">
+      <c r="P24" s="34"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="49">
         <v>43480</v>
       </c>
-      <c r="T24" s="48" t="s">
+      <c r="T24" s="50" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1989,13 +2004,13 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="29" t="s">
+      <c r="O25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="49"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="51"/>
     </row>
     <row r="26" ht="15" spans="3:19">
       <c r="C26" s="7"/>
@@ -2012,13 +2027,13 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="34">
+      <c r="O26" s="36">
         <v>43479</v>
       </c>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="47" t="s">
+      <c r="P26" s="34"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="49" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2037,11 +2052,11 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="49"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="51"/>
     </row>
     <row r="28" ht="15" spans="3:19">
       <c r="C28" s="7"/>
@@ -2058,11 +2073,11 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="49"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="51"/>
     </row>
     <row r="29" ht="15" spans="3:19">
       <c r="C29" s="7"/>
@@ -2079,11 +2094,11 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="49"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="51"/>
     </row>
     <row r="30" ht="15" spans="3:19">
       <c r="C30" s="19"/>
@@ -2100,11 +2115,11 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="49"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="51"/>
     </row>
     <row r="31" ht="15" spans="5:19">
       <c r="E31" s="17" t="s">
@@ -2119,34 +2134,36 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="49"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="51"/>
     </row>
     <row r="32" ht="15" spans="5:19">
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="49"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="51"/>
     </row>
     <row r="33" ht="15" spans="5:19">
       <c r="E33" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -2157,15 +2174,15 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="49"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="51"/>
     </row>
     <row r="34" ht="15" spans="5:14">
       <c r="E34" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -2179,7 +2196,7 @@
     </row>
     <row r="39" ht="27.75" spans="6:14">
       <c r="F39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2207,17 +2224,17 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="27" t="s">
+      <c r="O40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="38" t="s">
+      <c r="P40" s="30"/>
+      <c r="Q40" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="38" t="s">
+      <c r="R40" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="39" t="s">
+      <c r="S40" s="41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2225,7 +2242,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="16"/>
       <c r="E41" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2236,21 +2253,21 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
-      <c r="O41" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="45" t="s">
+      <c r="O41" s="33" t="s">
         <v>51</v>
+      </c>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="47" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" ht="15" spans="3:19">
       <c r="C42" s="7"/>
       <c r="D42" s="16"/>
       <c r="E42" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -2261,13 +2278,13 @@
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="35" t="s">
+      <c r="O42" s="37" t="s">
         <v>39</v>
       </c>
       <c r="P42" s="6"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="51" t="s">
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="53" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2275,7 +2292,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="16"/>
       <c r="E43" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -2286,21 +2303,21 @@
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
-      <c r="O43" s="36">
+      <c r="O43" s="38">
         <v>43486</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="51" t="s">
-        <v>54</v>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="53" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" ht="15" spans="3:19">
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
       <c r="E44" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
@@ -2311,21 +2328,21 @@
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="36">
+      <c r="O44" s="38">
         <v>43493</v>
       </c>
       <c r="P44" s="6"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="51" t="s">
-        <v>56</v>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="53" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="15" spans="3:19">
       <c r="C45" s="7"/>
       <c r="D45" s="16"/>
       <c r="E45" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -2336,206 +2353,206 @@
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
-      <c r="O45" s="35"/>
+      <c r="O45" s="37"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="51"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="53"/>
     </row>
     <row r="46" ht="15" spans="3:19">
       <c r="C46" s="7"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="35"/>
+      <c r="E46" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="37"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="51"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="53"/>
     </row>
     <row r="47" ht="15" spans="3:19">
       <c r="C47" s="7"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="37"/>
+      <c r="E47" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="39"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="51"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="53"/>
     </row>
     <row r="48" ht="15" spans="3:19">
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="35"/>
+      <c r="E48" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="37"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="54"/>
     </row>
     <row r="49" ht="15" spans="3:19">
       <c r="C49" s="7"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="35"/>
+      <c r="E49" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="37"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="54"/>
     </row>
     <row r="50" ht="15" spans="3:19">
       <c r="C50" s="7"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="35"/>
+      <c r="E50" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="54"/>
     </row>
     <row r="51" ht="15" spans="3:19">
       <c r="C51" s="7"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="49"/>
+      <c r="E51" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="51"/>
     </row>
     <row r="52" ht="15" spans="3:19">
       <c r="C52" s="7"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="49"/>
+      <c r="E52" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="51"/>
     </row>
     <row r="53" ht="15" spans="3:19">
       <c r="C53" s="7"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="49"/>
+      <c r="E53" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="51"/>
     </row>
     <row r="54" ht="15" spans="3:19">
       <c r="C54" s="7"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="49"/>
+      <c r="E54" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="51"/>
     </row>
     <row r="55" ht="15" spans="3:19">
       <c r="C55" s="7"/>
       <c r="D55" s="16"/>
       <c r="E55" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -2546,17 +2563,17 @@
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="49"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="51"/>
     </row>
     <row r="56" ht="15" spans="3:19">
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -2567,11 +2584,11 @@
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="49"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="88">

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="23445" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>17、其他：Docker深入使用（优化）、jemeter压力测试</t>
   </si>
   <si>
-    <t>18、开发任务书--按模块、逻辑书写</t>
+    <t>18、开发任务书--按模块、逻辑、接口书写</t>
   </si>
   <si>
     <t>2月15</t>
@@ -232,8 +232,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -267,61 +267,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -329,8 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,7 +297,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,8 +340,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -380,36 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -462,67 +462,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,97 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,8 +768,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,22 +793,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,21 +809,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,15 +830,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -862,6 +838,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,133 +882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:N50"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -130,6 +130,9 @@
     <t>1月17号</t>
   </si>
   <si>
+    <t>2月15号</t>
+  </si>
+  <si>
     <t>12、多租户数据库连接</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>2月15</t>
   </si>
   <si>
+    <t>2月22号</t>
+  </si>
+  <si>
     <t>19、</t>
   </si>
   <si>
@@ -196,7 +202,7 @@
     <t>6、Docker深入使用（优化）</t>
   </si>
   <si>
-    <t>7、</t>
+    <t>7、在线预览offiece online 验证</t>
   </si>
   <si>
     <t>8、</t>
@@ -232,8 +238,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -274,72 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -348,33 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,11 +310,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,8 +369,55 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,12 +450,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0CE8E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,169 +462,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,11 +765,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,24 +812,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,26 +838,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,134 +885,134 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,22 +1088,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,13 +1127,13 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,8 +1493,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:N32"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1572,17 +1566,17 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="40" t="s">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1604,11 +1598,11 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="42">
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="40">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1630,11 +1624,11 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="43">
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="41">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1656,11 +1650,11 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="43">
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="41">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1682,11 +1676,11 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="43">
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="41">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1723,20 +1717,20 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="40" t="s">
+      <c r="P14" s="28"/>
+      <c r="Q14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="S14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="45" t="s">
+      <c r="T14" s="43" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1755,11 +1749,11 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47">
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="45">
         <v>43818</v>
       </c>
     </row>
@@ -1778,11 +1772,11 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="48" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1801,13 +1795,13 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="33" t="s">
+      <c r="O17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="48" t="s">
+      <c r="P17" s="32"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="46" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1826,13 +1820,13 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="48" t="s">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1851,13 +1845,13 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="48" t="s">
+      <c r="P19" s="32"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="46" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1876,13 +1870,13 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="48" t="s">
+      <c r="P20" s="32"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="46" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1901,13 +1895,13 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="48" t="s">
+      <c r="P21" s="32"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1926,13 +1920,13 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="49" t="s">
+      <c r="P22" s="32"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="47" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1951,13 +1945,13 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="33" t="s">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1976,16 +1970,16 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="49">
+      <c r="P24" s="32"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="47">
         <v>43480</v>
       </c>
-      <c r="T24" s="50" t="s">
+      <c r="T24" s="48" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2004,19 +1998,21 @@
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="31" t="s">
+      <c r="O25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="51"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="49" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" ht="15" spans="3:19">
       <c r="C26" s="7"/>
       <c r="D26" s="16"/>
       <c r="E26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -2027,21 +2023,21 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="36">
+      <c r="O26" s="34">
         <v>43479</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="49" t="s">
-        <v>39</v>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="15" spans="3:19">
       <c r="C27" s="7"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -2052,17 +2048,17 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="51"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="49"/>
     </row>
     <row r="28" ht="15" spans="3:19">
       <c r="C28" s="7"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -2073,17 +2069,17 @@
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="51"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="49"/>
     </row>
     <row r="29" ht="15" spans="3:19">
       <c r="C29" s="7"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -2094,17 +2090,17 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="51"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="49"/>
     </row>
     <row r="30" ht="15" spans="3:19">
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
       <c r="E30" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -2115,15 +2111,15 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="51"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="49"/>
     </row>
     <row r="31" ht="15" spans="5:19">
       <c r="E31" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -2134,15 +2130,15 @@
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="51"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="49"/>
     </row>
     <row r="32" ht="15" spans="5:19">
       <c r="E32" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -2153,17 +2149,19 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
-      <c r="O32" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="51"/>
+      <c r="O32" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="49" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" ht="15" spans="5:19">
       <c r="E33" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -2174,15 +2172,15 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="51"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="49"/>
     </row>
     <row r="34" ht="15" spans="5:14">
       <c r="E34" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -2196,7 +2194,7 @@
     </row>
     <row r="39" ht="27.75" spans="6:14">
       <c r="F39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2224,17 +2222,17 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="29" t="s">
+      <c r="O40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="40" t="s">
+      <c r="P40" s="28"/>
+      <c r="Q40" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="40" t="s">
+      <c r="R40" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="41" t="s">
+      <c r="S40" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2242,7 +2240,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="16"/>
       <c r="E41" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -2253,21 +2251,21 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24"/>
-      <c r="O41" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="47" t="s">
-        <v>52</v>
+      <c r="O41" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" ht="15" spans="3:19">
       <c r="C42" s="7"/>
       <c r="D42" s="16"/>
       <c r="E42" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -2278,13 +2276,13 @@
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="37" t="s">
-        <v>39</v>
+      <c r="O42" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="P42" s="6"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="53" t="s">
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="51" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2292,7 +2290,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="16"/>
       <c r="E43" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -2303,21 +2301,21 @@
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
-      <c r="O43" s="38">
+      <c r="O43" s="36">
         <v>43486</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="53" t="s">
-        <v>55</v>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="51" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="15" spans="3:19">
       <c r="C44" s="7"/>
       <c r="D44" s="16"/>
       <c r="E44" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
@@ -2328,231 +2326,231 @@
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="38">
+      <c r="O44" s="36">
         <v>43493</v>
       </c>
       <c r="P44" s="6"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="53" t="s">
-        <v>57</v>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" ht="15" spans="3:19">
       <c r="C45" s="7"/>
       <c r="D45" s="16"/>
-      <c r="E45" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="37"/>
+      <c r="E45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="35"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="53"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="51"/>
     </row>
     <row r="46" ht="15" spans="3:19">
       <c r="C46" s="7"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="37"/>
+      <c r="E46" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="35"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="53"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="51"/>
     </row>
     <row r="47" ht="15" spans="3:19">
       <c r="C47" s="7"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="39"/>
+      <c r="E47" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="37"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="53"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="51"/>
     </row>
     <row r="48" ht="15" spans="3:19">
       <c r="C48" s="7"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="37"/>
+      <c r="E48" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="35"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="54"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="52"/>
     </row>
     <row r="49" ht="15" spans="3:19">
       <c r="C49" s="7"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="37"/>
+      <c r="E49" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="35"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="54"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="52"/>
     </row>
     <row r="50" ht="15" spans="3:19">
       <c r="C50" s="7"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="37"/>
+      <c r="E50" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="35"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="54"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="52"/>
     </row>
     <row r="51" ht="15" spans="3:19">
       <c r="C51" s="7"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="51"/>
+      <c r="E51" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="49"/>
     </row>
     <row r="52" ht="15" spans="3:19">
       <c r="C52" s="7"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="51"/>
+      <c r="E52" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="49"/>
     </row>
     <row r="53" ht="15" spans="3:19">
       <c r="C53" s="7"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="51"/>
+      <c r="E53" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="49"/>
     </row>
     <row r="54" ht="15" spans="3:19">
       <c r="C54" s="7"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="51"/>
+      <c r="E54" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="49"/>
     </row>
     <row r="55" ht="15" spans="3:19">
       <c r="C55" s="7"/>
       <c r="D55" s="16"/>
       <c r="E55" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -2563,17 +2561,17 @@
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="51"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="49"/>
     </row>
     <row r="56" ht="15" spans="3:19">
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -2584,11 +2582,11 @@
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="51"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="88">

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -154,13 +154,13 @@
     <t>17、其他：Docker深入使用（优化）、jemeter压力测试</t>
   </si>
   <si>
+    <t>2月15</t>
+  </si>
+  <si>
+    <t>2月22号</t>
+  </si>
+  <si>
     <t>18、开发任务书--按模块、逻辑、接口书写</t>
-  </si>
-  <si>
-    <t>2月15</t>
-  </si>
-  <si>
-    <t>2月22号</t>
   </si>
   <si>
     <t>19、</t>
@@ -237,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -280,9 +280,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,53 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,8 +326,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,24 +350,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,10 +366,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,8 +409,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,175 +456,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,6 +771,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -795,21 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -821,26 +851,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,15 +868,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,149 +876,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1124,12 @@
     <xf numFmtId="58" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,10 +1142,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,6 +1171,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1493,8 +1511,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:N51"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1570,13 +1588,13 @@
         <v>3</v>
       </c>
       <c r="P5" s="28"/>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1600,9 +1618,9 @@
       <c r="N6" s="10"/>
       <c r="O6" s="27"/>
       <c r="P6" s="28"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="40">
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="42">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1626,9 +1644,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="27"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="41">
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="43">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1652,9 +1670,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="41">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="43">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1678,9 +1696,9 @@
       <c r="N9" s="13"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="41">
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="43">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1721,16 +1739,16 @@
         <v>12</v>
       </c>
       <c r="P14" s="28"/>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1751,9 +1769,9 @@
       <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45">
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47">
         <v>43818</v>
       </c>
     </row>
@@ -1774,9 +1792,9 @@
       <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="46" t="s">
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="48" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1799,9 +1817,9 @@
         <v>18</v>
       </c>
       <c r="P17" s="32"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="46" t="s">
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="48" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1824,9 +1842,9 @@
         <v>21</v>
       </c>
       <c r="P18" s="32"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="46" t="s">
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1849,9 +1867,9 @@
         <v>22</v>
       </c>
       <c r="P19" s="32"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="46" t="s">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="48" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1874,9 +1892,9 @@
         <v>24</v>
       </c>
       <c r="P20" s="32"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="46" t="s">
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="48" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1899,9 +1917,9 @@
         <v>26</v>
       </c>
       <c r="P21" s="32"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="46" t="s">
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="48" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1924,9 +1942,9 @@
         <v>28</v>
       </c>
       <c r="P22" s="32"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="47" t="s">
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="49" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1949,8 +1967,8 @@
         <v>24</v>
       </c>
       <c r="P23" s="32"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
       <c r="S23" s="31" t="s">
         <v>32</v>
       </c>
@@ -1974,37 +1992,37 @@
         <v>34</v>
       </c>
       <c r="P24" s="32"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="47">
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="49">
         <v>43480</v>
       </c>
-      <c r="T24" s="48" t="s">
+      <c r="T24" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" ht="15" spans="3:19">
       <c r="C25" s="7"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="29" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="49" t="s">
+      <c r="P25" s="36"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="52" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2027,9 +2045,9 @@
         <v>43479</v>
       </c>
       <c r="P26" s="32"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="47" t="s">
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="49" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2050,9 +2068,9 @@
       <c r="N27" s="18"/>
       <c r="O27" s="29"/>
       <c r="P27" s="30"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="49"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" ht="15" spans="3:19">
       <c r="C28" s="7"/>
@@ -2071,9 +2089,9 @@
       <c r="N28" s="18"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="49"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="53"/>
     </row>
     <row r="29" ht="15" spans="3:19">
       <c r="C29" s="7"/>
@@ -2092,9 +2110,9 @@
       <c r="N29" s="18"/>
       <c r="O29" s="29"/>
       <c r="P29" s="30"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="49"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="53"/>
     </row>
     <row r="30" ht="15" spans="3:19">
       <c r="C30" s="19"/>
@@ -2113,50 +2131,54 @@
       <c r="N30" s="18"/>
       <c r="O30" s="29"/>
       <c r="P30" s="30"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="49"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="53"/>
     </row>
     <row r="31" ht="15" spans="5:19">
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="49"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="52" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" ht="15" spans="5:19">
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="29" t="s">
+      <c r="P32" s="36"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="52" t="s">
         <v>47</v>
-      </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="49" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" ht="15" spans="5:19">
@@ -2174,9 +2196,9 @@
       <c r="N33" s="22"/>
       <c r="O33" s="29"/>
       <c r="P33" s="30"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="49"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="53"/>
     </row>
     <row r="34" ht="15" spans="5:14">
       <c r="E34" s="21" t="s">
@@ -2226,13 +2248,13 @@
         <v>12</v>
       </c>
       <c r="P40" s="28"/>
-      <c r="Q40" s="38" t="s">
+      <c r="Q40" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="38" t="s">
+      <c r="R40" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="39" t="s">
+      <c r="S40" s="41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2255,9 +2277,9 @@
         <v>53</v>
       </c>
       <c r="P41" s="32"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="45" t="s">
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="47" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2276,13 +2298,13 @@
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="35" t="s">
+      <c r="O42" s="37" t="s">
         <v>40</v>
       </c>
       <c r="P42" s="6"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="51" t="s">
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="55" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2301,13 +2323,13 @@
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
-      <c r="O43" s="36">
+      <c r="O43" s="38">
         <v>43486</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="51" t="s">
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="55" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2326,13 +2348,13 @@
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="36">
+      <c r="O44" s="38">
         <v>43493</v>
       </c>
       <c r="P44" s="6"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="51" t="s">
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="55" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2351,11 +2373,11 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
-      <c r="O45" s="35"/>
+      <c r="O45" s="37"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="51"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="55"/>
     </row>
     <row r="46" ht="15" spans="3:19">
       <c r="C46" s="7"/>
@@ -2372,11 +2394,11 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="35"/>
+      <c r="O46" s="37"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="51"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="55"/>
     </row>
     <row r="47" ht="15" spans="3:19">
       <c r="C47" s="7"/>
@@ -2393,11 +2415,11 @@
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
-      <c r="O47" s="37"/>
+      <c r="O47" s="39"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="51"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="55"/>
     </row>
     <row r="48" ht="15" spans="3:19">
       <c r="C48" s="7"/>
@@ -2414,11 +2436,11 @@
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="35"/>
+      <c r="O48" s="37"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="52"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="56"/>
     </row>
     <row r="49" ht="15" spans="3:19">
       <c r="C49" s="7"/>
@@ -2435,11 +2457,11 @@
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
-      <c r="O49" s="35"/>
+      <c r="O49" s="37"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="52"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="56"/>
     </row>
     <row r="50" ht="15" spans="3:19">
       <c r="C50" s="7"/>
@@ -2456,11 +2478,11 @@
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
-      <c r="O50" s="35"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="52"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="56"/>
     </row>
     <row r="51" ht="15" spans="3:19">
       <c r="C51" s="7"/>
@@ -2479,9 +2501,9 @@
       <c r="N51" s="26"/>
       <c r="O51" s="29"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="49"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="53"/>
     </row>
     <row r="52" ht="15" spans="3:19">
       <c r="C52" s="7"/>
@@ -2500,9 +2522,9 @@
       <c r="N52" s="26"/>
       <c r="O52" s="29"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="49"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="53"/>
     </row>
     <row r="53" ht="15" spans="3:19">
       <c r="C53" s="7"/>
@@ -2521,9 +2543,9 @@
       <c r="N53" s="26"/>
       <c r="O53" s="29"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="49"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="53"/>
     </row>
     <row r="54" ht="15" spans="3:19">
       <c r="C54" s="7"/>
@@ -2542,9 +2564,9 @@
       <c r="N54" s="26"/>
       <c r="O54" s="29"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="49"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="53"/>
     </row>
     <row r="55" ht="15" spans="3:19">
       <c r="C55" s="7"/>
@@ -2563,9 +2585,9 @@
       <c r="N55" s="22"/>
       <c r="O55" s="29"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="49"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="53"/>
     </row>
     <row r="56" ht="15" spans="3:19">
       <c r="C56" s="19"/>
@@ -2584,9 +2606,9 @@
       <c r="N56" s="22"/>
       <c r="O56" s="29"/>
       <c r="P56" s="30"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="49"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="88">

--- a/植思杰日常任务.xlsx
+++ b/植思杰日常任务.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>已完成计划（前端）</t>
   </si>
@@ -237,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -280,24 +280,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,14 +296,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,14 +311,69 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,17 +389,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,17 +403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,29 +416,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,97 +456,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,55 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,19 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,26 +765,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +795,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -825,17 +819,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,24 +862,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -876,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,137 +882,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,10 +1118,7 @@
     <xf numFmtId="58" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,10 +1133,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,12 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1511,8 +1496,8 @@
   <sheetPr/>
   <dimension ref="C3:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1588,13 +1573,13 @@
         <v>3</v>
       </c>
       <c r="P5" s="28"/>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="T5" s="1"/>
@@ -1618,9 +1603,9 @@
       <c r="N6" s="10"/>
       <c r="O6" s="27"/>
       <c r="P6" s="28"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="42">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="41">
         <v>43788</v>
       </c>
       <c r="T6" s="1"/>
@@ -1644,9 +1629,9 @@
       <c r="N7" s="10"/>
       <c r="O7" s="27"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="43">
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="42">
         <v>43817</v>
       </c>
       <c r="T7" s="1"/>
@@ -1670,9 +1655,9 @@
       <c r="N8" s="10"/>
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="43">
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="42">
         <v>43817</v>
       </c>
       <c r="T8" s="1"/>
@@ -1696,9 +1681,9 @@
       <c r="N9" s="13"/>
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="43">
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="42">
         <v>43817</v>
       </c>
       <c r="T9" s="1"/>
@@ -1739,16 +1724,16 @@
         <v>12</v>
       </c>
       <c r="P14" s="28"/>
-      <c r="Q14" s="40" t="s">
+      <c r="Q14" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="41" t="s">
+      <c r="S14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="45" t="s">
+      <c r="T14" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1769,9 +1754,9 @@
       <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47">
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46">
         <v>43818</v>
       </c>
     </row>
@@ -1792,9 +1777,9 @@
       <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="48" t="s">
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="47" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1817,9 +1802,9 @@
         <v>18</v>
       </c>
       <c r="P17" s="32"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="48" t="s">
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1842,9 +1827,9 @@
         <v>21</v>
       </c>
       <c r="P18" s="32"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="48" t="s">
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="47" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1867,9 +1852,9 @@
         <v>22</v>
       </c>
       <c r="P19" s="32"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="48" t="s">
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="47" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1892,9 +1877,9 @@
         <v>24</v>
       </c>
       <c r="P20" s="32"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="48" t="s">
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="47" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1917,9 +1902,9 @@
         <v>26</v>
       </c>
       <c r="P21" s="32"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="48" t="s">
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1942,9 +1927,9 @@
         <v>28</v>
       </c>
       <c r="P22" s="32"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="49" t="s">
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="48" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1967,8 +1952,8 @@
         <v>24</v>
       </c>
       <c r="P23" s="32"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
       <c r="S23" s="31" t="s">
         <v>32</v>
       </c>
@@ -1992,12 +1977,12 @@
         <v>34</v>
       </c>
       <c r="P24" s="32"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="49">
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="48">
         <v>43480</v>
       </c>
-      <c r="T24" s="50" t="s">
+      <c r="T24" s="49" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2016,13 +2001,13 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="35" t="s">
+      <c r="O25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52" t="s">
+      <c r="P25" s="32"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="48" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2045,9 +2030,9 @@
         <v>43479</v>
       </c>
       <c r="P26" s="32"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="49" t="s">
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2066,11 +2051,15 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="35">
+        <v>43521</v>
+      </c>
       <c r="P27" s="30"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="53"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="50">
+        <v>43525</v>
+      </c>
     </row>
     <row r="28" ht="15" spans="3:19">
       <c r="C28" s="7"/>
@@ -2089,9 +2078,9 @@
       <c r="N28" s="18"/>
       <c r="O28" s="29"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="53"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="50"/>
     </row>
     <row r="29" ht="15" spans="3:19">
       <c r="C29" s="7"/>
@@ -2108,11 +2097,15 @@
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="35">
+        <v>43521</v>
+      </c>
       <c r="P29" s="30"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="53"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="50">
+        <v>43525</v>
+      </c>
     </row>
     <row r="30" ht="15" spans="3:19">
       <c r="C30" s="19"/>
@@ -2131,9 +2124,9 @@
       <c r="N30" s="18"/>
       <c r="O30" s="29"/>
       <c r="P30" s="30"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="53"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="50"/>
     </row>
     <row r="31" ht="15" spans="5:19">
       <c r="E31" s="10" t="s">
@@ -2148,13 +2141,13 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="35" t="s">
+      <c r="O31" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="52" t="s">
+      <c r="P31" s="32"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="48" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2171,13 +2164,13 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
-      <c r="O32" s="35" t="s">
+      <c r="O32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="52" t="s">
+      <c r="P32" s="32"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="48" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2196,9 +2189,9 @@
       <c r="N33" s="22"/>
       <c r="O33" s="29"/>
       <c r="P33" s="30"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="53"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="50"/>
     </row>
     <row r="34" ht="15" spans="5:14">
       <c r="E34" s="21" t="s">
@@ -2248,13 +2241,13 @@
         <v>12</v>
       </c>
       <c r="P40" s="28"/>
-      <c r="Q40" s="40" t="s">
+      <c r="Q40" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="40" t="s">
+      <c r="R40" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S40" s="41" t="s">
+      <c r="S40" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2277,9 +2270,9 @@
         <v>53</v>
       </c>
       <c r="P41" s="32"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="47" t="s">
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2298,13 +2291,13 @@
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="37" t="s">
+      <c r="O42" s="36" t="s">
         <v>40</v>
       </c>
       <c r="P42" s="6"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="55" t="s">
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="52" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2323,13 +2316,13 @@
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
-      <c r="O43" s="38">
+      <c r="O43" s="37">
         <v>43486</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="55" t="s">
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="52" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2348,13 +2341,13 @@
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="38">
+      <c r="O44" s="37">
         <v>43493</v>
       </c>
       <c r="P44" s="6"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="55" t="s">
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="52" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2373,11 +2366,11 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
-      <c r="O45" s="37"/>
+      <c r="O45" s="36"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="55"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="52"/>
     </row>
     <row r="46" ht="15" spans="3:19">
       <c r="C46" s="7"/>
@@ -2394,11 +2387,11 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="37"/>
+      <c r="O46" s="36"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="55"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="52"/>
     </row>
     <row r="47" ht="15" spans="3:19">
       <c r="C47" s="7"/>
@@ -2415,11 +2408,11 @@
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
-      <c r="O47" s="39"/>
+      <c r="O47" s="38"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="55"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="52"/>
     </row>
     <row r="48" ht="15" spans="3:19">
       <c r="C48" s="7"/>
@@ -2436,11 +2429,11 @@
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
-      <c r="O48" s="37"/>
+      <c r="O48" s="36"/>
       <c r="P48" s="6"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="56"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="53"/>
     </row>
     <row r="49" ht="15" spans="3:19">
       <c r="C49" s="7"/>
@@ -2457,11 +2450,11 @@
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
-      <c r="O49" s="37"/>
+      <c r="O49" s="36"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="56"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="53"/>
     </row>
     <row r="50" ht="15" spans="3:19">
       <c r="C50" s="7"/>
@@ -2478,11 +2471,11 @@
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
-      <c r="O50" s="37"/>
+      <c r="O50" s="36"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="56"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="53"/>
     </row>
     <row r="51" ht="15" spans="3:19">
       <c r="C51" s="7"/>
@@ -2501,9 +2494,9 @@
       <c r="N51" s="26"/>
       <c r="O51" s="29"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="53"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="50"/>
     </row>
     <row r="52" ht="15" spans="3:19">
       <c r="C52" s="7"/>
@@ -2522,9 +2515,9 @@
       <c r="N52" s="26"/>
       <c r="O52" s="29"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="53"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="50"/>
     </row>
     <row r="53" ht="15" spans="3:19">
       <c r="C53" s="7"/>
@@ -2543,9 +2536,9 @@
       <c r="N53" s="26"/>
       <c r="O53" s="29"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="53"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="50"/>
     </row>
     <row r="54" ht="15" spans="3:19">
       <c r="C54" s="7"/>
@@ -2564,9 +2557,9 @@
       <c r="N54" s="26"/>
       <c r="O54" s="29"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="53"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="50"/>
     </row>
     <row r="55" ht="15" spans="3:19">
       <c r="C55" s="7"/>
@@ -2585,9 +2578,9 @@
       <c r="N55" s="22"/>
       <c r="O55" s="29"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="53"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="50"/>
     </row>
     <row r="56" ht="15" spans="3:19">
       <c r="C56" s="19"/>
@@ -2606,9 +2599,9 @@
       <c r="N56" s="22"/>
       <c r="O56" s="29"/>
       <c r="P56" s="30"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="53"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="88">
